--- a/OC_Valen_FI0123_FF0924_v1.xlsx
+++ b/OC_Valen_FI0123_FF0924_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633ED868-7518-4361-9FE9-80097C56CD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA93F0D-B526-4D20-8084-E9108B74B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>pred</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:C422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,23 +430,29 @@
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44929</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
@@ -451,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44931</v>
       </c>
@@ -459,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44932</v>
       </c>
@@ -467,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44935</v>
       </c>
@@ -475,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44936</v>
       </c>
@@ -483,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44937</v>
       </c>
@@ -491,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44938</v>
       </c>
@@ -499,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44939</v>
       </c>
@@ -507,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44943</v>
       </c>
@@ -515,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44944</v>
       </c>
@@ -523,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44945</v>
       </c>
@@ -531,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44946</v>
       </c>
@@ -539,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44949</v>
       </c>
@@ -547,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44950</v>
       </c>
